--- a/output/acción contra el hambre.xlsx
+++ b/output/acción contra el hambre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="172">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -861,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ133"/>
+  <dimension ref="A1:AM133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,7 +879,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,10 +988,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1081,15 +1099,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>875876</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1188,15 +1215,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>257344</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1295,15 +1331,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>623896</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1402,15 +1447,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>1872252</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1509,15 +1563,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>367284</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1616,15 +1679,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>519596</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1723,15 +1795,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>2099225</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1830,21 +1911,30 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>1343914</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1937,15 +2027,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>506026</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2044,15 +2143,24 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>1115310</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2151,15 +2259,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>352112</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2258,15 +2375,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>876268</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2365,15 +2491,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>907597</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2472,15 +2607,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>1105077</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2579,15 +2723,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>363513</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2686,15 +2839,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>1626887</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2793,15 +2955,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2900,15 +3071,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>1470126</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3007,15 +3187,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>1096765</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3114,15 +3303,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>732939</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3221,15 +3419,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>1492782</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3328,15 +3535,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3435,15 +3651,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>316602</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3542,15 +3767,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>204755</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3649,15 +3883,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>370510</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3756,21 +3999,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>109317</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>2000000</v>
@@ -3863,15 +4115,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>50000</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3970,15 +4231,24 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>484302</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4077,15 +4347,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>429288</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4184,15 +4463,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>175974</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4291,15 +4579,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>441788</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4398,15 +4695,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>1313774</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4505,15 +4811,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>2430532</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4612,15 +4927,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>2037471</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4719,15 +5043,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>4032650</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4826,15 +5159,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>2449670</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4933,15 +5275,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>1921000</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5040,15 +5391,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>1411135</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5147,15 +5507,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>3132811</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5254,15 +5623,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5361,15 +5739,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>759673</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5468,15 +5855,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>1435173</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5575,15 +5971,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>2324204</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5682,15 +6087,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>2749733</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5789,15 +6203,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>76579</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5896,21 +6319,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>336725</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6003,15 +6435,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>806846</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6110,15 +6551,24 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>5321974</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6217,15 +6667,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>258857.5</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6324,15 +6783,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>560953</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6431,15 +6899,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>343274.5</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6538,15 +7015,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>358616</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6645,15 +7131,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>60953</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6752,15 +7247,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>467418</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6859,15 +7363,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>4406327.5</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6966,15 +7479,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>379146</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7073,21 +7595,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>3484407</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7180,15 +7711,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>879955</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7287,15 +7827,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>2434546.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7394,15 +7943,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>311629.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7501,15 +8059,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>3661659</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7608,15 +8175,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>2041850</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7715,15 +8291,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ64">
+        <v>1</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>328441</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7822,15 +8407,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>982580.5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7929,15 +8523,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>10959</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8036,15 +8639,24 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8143,15 +8755,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>258857.5</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8250,15 +8871,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>560953</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8357,15 +8987,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>343274.5</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8464,15 +9103,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>358616</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8571,15 +9219,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>60953</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8678,15 +9335,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>467418</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8785,15 +9451,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ74">
+        <v>1</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>4406327.5</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8892,15 +9567,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>379146</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8999,21 +9683,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>3484407</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -9106,15 +9799,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ77">
+        <v>1</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>879955</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9213,15 +9915,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>2434546.5</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9320,15 +10031,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>311629.5</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9427,15 +10147,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>3661659</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -9534,15 +10263,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ81">
+        <v>1</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>2041850</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -9641,15 +10379,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>328441</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9748,15 +10495,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ83">
+        <v>1</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>982580.5</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9855,15 +10611,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ84">
+        <v>1</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>10959</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9962,15 +10727,24 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ85">
+        <v>1</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10069,15 +10843,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>600000</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10176,15 +10959,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ87">
+        <v>1</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>107500</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10283,15 +11075,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ88">
+        <v>1</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>5000</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10390,15 +11191,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ89">
+        <v>1</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>125000</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10497,15 +11307,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ90">
+        <v>1</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>825000</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10604,15 +11423,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ91">
+        <v>1</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>600000</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10711,15 +11539,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ92">
+        <v>1</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>5500</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10818,15 +11655,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ93">
+        <v>1</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>1360500</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -10925,15 +11771,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ94">
+        <v>1</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>4000000</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11032,15 +11887,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ95">
+        <v>1</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>784000</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11139,15 +12003,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ96">
+        <v>1</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>4000000</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11246,15 +12119,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>240000</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -11353,21 +12235,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ98">
+        <v>1</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>3500000</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -11460,15 +12351,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ99">
+        <v>1</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>4050000</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11567,15 +12467,24 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ100">
+        <v>1</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>250000</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11674,15 +12583,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ101">
+        <v>1</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>600000</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11781,15 +12699,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ102">
+        <v>1</v>
+      </c>
+      <c r="AK102">
+        <v>1</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>107500</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11888,15 +12815,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ103">
+        <v>1</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -11995,15 +12931,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ104">
+        <v>1</v>
+      </c>
+      <c r="AK104">
+        <v>1</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>125000</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12102,15 +13047,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ105">
+        <v>1</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>825000</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12209,15 +13163,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ106">
+        <v>1</v>
+      </c>
+      <c r="AK106">
+        <v>1</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>600000</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12316,15 +13279,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ107">
+        <v>1</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>5500</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12423,15 +13395,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ108">
+        <v>1</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>1360500</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12530,15 +13511,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ109">
+        <v>1</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>4000000</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12637,15 +13627,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ110">
+        <v>1</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>784000</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12744,15 +13743,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ111">
+        <v>1</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>4000000</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12851,15 +13859,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ112">
+        <v>1</v>
+      </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>240000</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -12958,21 +13975,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ113">
+        <v>1</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>3500000</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -13065,15 +14091,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ114">
+        <v>1</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>4050000</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13172,15 +14207,24 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ115">
+        <v>1</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>250000</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13279,15 +14323,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ116">
+        <v>1</v>
+      </c>
+      <c r="AK116">
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>608389</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13386,15 +14439,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ117">
+        <v>1</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>3046033</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13493,15 +14555,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ118">
+        <v>1</v>
+      </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>902154</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13600,15 +14671,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ119">
+        <v>1</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>123000</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13707,15 +14787,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ120">
+        <v>1</v>
+      </c>
+      <c r="AK120">
+        <v>1</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>2720206</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13814,15 +14903,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ121">
+        <v>1</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>1833034</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13921,15 +15019,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ122">
+        <v>1</v>
+      </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>1061608</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -14028,15 +15135,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ123">
+        <v>1</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>1617149</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -14135,15 +15251,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ124">
+        <v>1</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>7210855</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -14242,15 +15367,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ125">
+        <v>1</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>9334216</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -14349,15 +15483,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ126">
+        <v>1</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>7048549</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14456,15 +15599,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ127">
+        <v>1</v>
+      </c>
+      <c r="AK127">
+        <v>1</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>207370</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -14563,15 +15715,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ128">
+        <v>1</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>8491201</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14670,15 +15831,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ129">
+        <v>1</v>
+      </c>
+      <c r="AK129">
+        <v>1</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>112151</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -14777,21 +15947,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ130">
+        <v>1</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>4587268</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -14884,15 +16063,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ131">
+        <v>1</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>4403312</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -14991,15 +16179,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ132">
+        <v>1</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>5782755</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -15098,9 +16295,18 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ133">
+        <v>1</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>83996</v>
       </c>
     </row>

--- a/output/acción contra el hambre.xlsx
+++ b/output/acción contra el hambre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="174">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -870,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM133"/>
+  <dimension ref="A1:AO133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,7 +885,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,10 +1003,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1099,11 +1111,11 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI2">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ2">
         <v>1995</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
       <c r="AK2">
         <v>1</v>
       </c>
@@ -1111,12 +1123,18 @@
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>875876</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1215,11 +1233,11 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI3">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ3">
         <v>1995</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
       <c r="AK3">
         <v>1</v>
       </c>
@@ -1227,12 +1245,18 @@
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>257344</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1331,11 +1355,11 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI4">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ4">
         <v>1995</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
       <c r="AK4">
         <v>1</v>
       </c>
@@ -1343,12 +1367,18 @@
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>623896</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1447,11 +1477,11 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI5">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ5">
         <v>1995</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
       <c r="AK5">
         <v>1</v>
       </c>
@@ -1459,12 +1489,18 @@
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>1872252</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1563,11 +1599,11 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI6">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ6">
         <v>1995</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
       <c r="AK6">
         <v>1</v>
       </c>
@@ -1575,12 +1611,18 @@
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>367284</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1679,11 +1721,11 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI7">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ7">
         <v>1995</v>
       </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
       <c r="AK7">
         <v>1</v>
       </c>
@@ -1691,12 +1733,18 @@
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>519596</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1795,11 +1843,11 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI8">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ8">
         <v>1995</v>
       </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
       <c r="AK8">
         <v>1</v>
       </c>
@@ -1807,12 +1855,18 @@
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>2099225</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1911,30 +1965,36 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI9">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ9">
         <v>1995</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>1343914</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2027,24 +2087,30 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI10">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ10">
         <v>1995</v>
       </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>506026</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2143,24 +2209,30 @@
         <v>0.1404006221475769</v>
       </c>
       <c r="AI11">
+        <v>0.09541552650128039</v>
+      </c>
+      <c r="AJ11">
         <v>1995</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>1115310</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2259,24 +2331,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI12">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ12">
         <v>1995</v>
       </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>352112</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2375,24 +2453,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI13">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ13">
         <v>1995</v>
       </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>876268</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2491,24 +2575,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI14">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ14">
         <v>1995</v>
       </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>907597</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2607,24 +2697,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI15">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ15">
         <v>1995</v>
       </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>1105077</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2723,24 +2819,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI16">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ16">
         <v>1995</v>
       </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>363513</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2839,24 +2941,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI17">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ17">
         <v>1995</v>
       </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>1626887</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2955,24 +3063,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI18">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ18">
         <v>1995</v>
       </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3071,11 +3185,11 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI19">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ19">
         <v>1995</v>
       </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
       <c r="AK19">
         <v>1</v>
       </c>
@@ -3083,12 +3197,18 @@
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>1470126</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3187,11 +3307,11 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI20">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ20">
         <v>1995</v>
       </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
       <c r="AK20">
         <v>1</v>
       </c>
@@ -3199,12 +3319,18 @@
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>1096765</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3303,11 +3429,11 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI21">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ21">
         <v>1995</v>
       </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
       <c r="AK21">
         <v>1</v>
       </c>
@@ -3315,12 +3441,18 @@
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>732939</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3419,11 +3551,11 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI22">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ22">
         <v>1995</v>
       </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
       <c r="AK22">
         <v>1</v>
       </c>
@@ -3431,12 +3563,18 @@
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>1492782</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3535,11 +3673,11 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI23">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ23">
         <v>1995</v>
       </c>
-      <c r="AJ23">
-        <v>1</v>
-      </c>
       <c r="AK23">
         <v>1</v>
       </c>
@@ -3547,12 +3685,18 @@
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3651,11 +3795,11 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI24">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ24">
         <v>1995</v>
       </c>
-      <c r="AJ24">
-        <v>1</v>
-      </c>
       <c r="AK24">
         <v>1</v>
       </c>
@@ -3663,12 +3807,18 @@
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>316602</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3767,11 +3917,11 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI25">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ25">
         <v>1995</v>
       </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
       <c r="AK25">
         <v>1</v>
       </c>
@@ -3779,12 +3929,18 @@
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>204755</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3883,11 +4039,11 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI26">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ26">
         <v>1995</v>
       </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
       <c r="AK26">
         <v>1</v>
       </c>
@@ -3895,12 +4051,18 @@
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>370510</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3999,30 +4161,36 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI27">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ27">
         <v>1995</v>
       </c>
-      <c r="AJ27">
-        <v>1</v>
-      </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>109317</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>2000000</v>
@@ -4115,24 +4283,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI28">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ28">
         <v>1995</v>
       </c>
-      <c r="AJ28">
-        <v>1</v>
-      </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>50000</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4231,24 +4405,30 @@
         <v>0.1371891473322027</v>
       </c>
       <c r="AI29">
+        <v>0.1792266146359078</v>
+      </c>
+      <c r="AJ29">
         <v>1995</v>
       </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>484302</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4347,24 +4527,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI30">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ30">
         <v>1995</v>
       </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
       <c r="AK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>429288</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4463,24 +4649,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI31">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ31">
         <v>1995</v>
       </c>
-      <c r="AJ31">
-        <v>1</v>
-      </c>
       <c r="AK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>175974</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4579,24 +4771,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI32">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ32">
         <v>1995</v>
       </c>
-      <c r="AJ32">
-        <v>1</v>
-      </c>
       <c r="AK32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>441788</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4695,24 +4893,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI33">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ33">
         <v>1995</v>
       </c>
-      <c r="AJ33">
-        <v>1</v>
-      </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>1313774</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4811,24 +5015,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI34">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ34">
         <v>1995</v>
       </c>
-      <c r="AJ34">
-        <v>1</v>
-      </c>
       <c r="AK34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>2430532</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4927,24 +5137,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI35">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ35">
         <v>1995</v>
       </c>
-      <c r="AJ35">
-        <v>1</v>
-      </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>2037471</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5043,24 +5259,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI36">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ36">
         <v>1995</v>
       </c>
-      <c r="AJ36">
-        <v>1</v>
-      </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>4032650</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5159,11 +5381,11 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI37">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ37">
         <v>1995</v>
       </c>
-      <c r="AJ37">
-        <v>1</v>
-      </c>
       <c r="AK37">
         <v>1</v>
       </c>
@@ -5171,12 +5393,18 @@
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>2449670</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5275,11 +5503,11 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI38">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ38">
         <v>1995</v>
       </c>
-      <c r="AJ38">
-        <v>1</v>
-      </c>
       <c r="AK38">
         <v>1</v>
       </c>
@@ -5287,12 +5515,18 @@
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>1921000</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5391,11 +5625,11 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI39">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ39">
         <v>1995</v>
       </c>
-      <c r="AJ39">
-        <v>1</v>
-      </c>
       <c r="AK39">
         <v>1</v>
       </c>
@@ -5403,12 +5637,18 @@
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>1411135</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5507,11 +5747,11 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI40">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ40">
         <v>1995</v>
       </c>
-      <c r="AJ40">
-        <v>1</v>
-      </c>
       <c r="AK40">
         <v>1</v>
       </c>
@@ -5519,12 +5759,18 @@
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>3132811</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5623,11 +5869,11 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI41">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ41">
         <v>1995</v>
       </c>
-      <c r="AJ41">
-        <v>1</v>
-      </c>
       <c r="AK41">
         <v>1</v>
       </c>
@@ -5637,10 +5883,16 @@
       <c r="AM41">
         <v>0</v>
       </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5739,11 +5991,11 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI42">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ42">
         <v>1995</v>
       </c>
-      <c r="AJ42">
-        <v>1</v>
-      </c>
       <c r="AK42">
         <v>1</v>
       </c>
@@ -5751,12 +6003,18 @@
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>759673</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5855,11 +6113,11 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI43">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ43">
         <v>1995</v>
       </c>
-      <c r="AJ43">
-        <v>1</v>
-      </c>
       <c r="AK43">
         <v>1</v>
       </c>
@@ -5867,12 +6125,18 @@
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>1435173</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5971,11 +6235,11 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI44">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ44">
         <v>1995</v>
       </c>
-      <c r="AJ44">
-        <v>1</v>
-      </c>
       <c r="AK44">
         <v>1</v>
       </c>
@@ -5983,12 +6247,18 @@
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>2324204</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6087,24 +6357,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI45">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ45">
         <v>1995</v>
       </c>
-      <c r="AJ45">
-        <v>1</v>
-      </c>
       <c r="AK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>2749733</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6203,24 +6479,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI46">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ46">
         <v>1995</v>
       </c>
-      <c r="AJ46">
-        <v>1</v>
-      </c>
       <c r="AK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>76579</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6319,30 +6601,36 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI47">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ47">
         <v>1995</v>
       </c>
-      <c r="AJ47">
-        <v>1</v>
-      </c>
       <c r="AK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>336725</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6435,24 +6723,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI48">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ48">
         <v>1995</v>
       </c>
-      <c r="AJ48">
-        <v>1</v>
-      </c>
       <c r="AK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>806846</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6551,24 +6845,30 @@
         <v>0.1966200215285253</v>
       </c>
       <c r="AI49">
+        <v>0.003853606027987083</v>
+      </c>
+      <c r="AJ49">
         <v>1995</v>
       </c>
-      <c r="AJ49">
-        <v>1</v>
-      </c>
       <c r="AK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>5321974</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6667,11 +6967,11 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI50">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ50">
         <v>1995</v>
       </c>
-      <c r="AJ50">
-        <v>1</v>
-      </c>
       <c r="AK50">
         <v>1</v>
       </c>
@@ -6679,12 +6979,18 @@
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>258857.5</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6783,11 +7089,11 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI51">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ51">
         <v>1995</v>
       </c>
-      <c r="AJ51">
-        <v>1</v>
-      </c>
       <c r="AK51">
         <v>1</v>
       </c>
@@ -6795,12 +7101,18 @@
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>560953</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6899,11 +7211,11 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI52">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ52">
         <v>1995</v>
       </c>
-      <c r="AJ52">
-        <v>1</v>
-      </c>
       <c r="AK52">
         <v>1</v>
       </c>
@@ -6911,12 +7223,18 @@
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>343274.5</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7015,11 +7333,11 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI53">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ53">
         <v>1995</v>
       </c>
-      <c r="AJ53">
-        <v>1</v>
-      </c>
       <c r="AK53">
         <v>1</v>
       </c>
@@ -7027,12 +7345,18 @@
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>358616</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7131,11 +7455,11 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI54">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ54">
         <v>1995</v>
       </c>
-      <c r="AJ54">
-        <v>1</v>
-      </c>
       <c r="AK54">
         <v>1</v>
       </c>
@@ -7143,12 +7467,18 @@
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>60953</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7247,11 +7577,11 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI55">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ55">
         <v>1995</v>
       </c>
-      <c r="AJ55">
-        <v>1</v>
-      </c>
       <c r="AK55">
         <v>1</v>
       </c>
@@ -7259,12 +7589,18 @@
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>467418</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7363,11 +7699,11 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI56">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ56">
         <v>1995</v>
       </c>
-      <c r="AJ56">
-        <v>1</v>
-      </c>
       <c r="AK56">
         <v>1</v>
       </c>
@@ -7375,12 +7711,18 @@
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>4406327.5</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7479,24 +7821,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI57">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ57">
         <v>1995</v>
       </c>
-      <c r="AJ57">
-        <v>1</v>
-      </c>
       <c r="AK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>379146</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7595,30 +7943,36 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI58">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ58">
         <v>1995</v>
       </c>
-      <c r="AJ58">
-        <v>1</v>
-      </c>
       <c r="AK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>3484407</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7711,24 +8065,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI59">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ59">
         <v>1995</v>
       </c>
-      <c r="AJ59">
-        <v>1</v>
-      </c>
       <c r="AK59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>879955</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7827,24 +8187,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI60">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ60">
         <v>1995</v>
       </c>
-      <c r="AJ60">
-        <v>1</v>
-      </c>
       <c r="AK60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>2434546.5</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7943,24 +8309,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI61">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ61">
         <v>1995</v>
       </c>
-      <c r="AJ61">
-        <v>1</v>
-      </c>
       <c r="AK61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>311629.5</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8059,24 +8431,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI62">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ62">
         <v>1995</v>
       </c>
-      <c r="AJ62">
-        <v>1</v>
-      </c>
       <c r="AK62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>3661659</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8175,24 +8553,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI63">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ63">
         <v>1995</v>
       </c>
-      <c r="AJ63">
-        <v>1</v>
-      </c>
       <c r="AK63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>2041850</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8291,24 +8675,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI64">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ64">
         <v>1995</v>
       </c>
-      <c r="AJ64">
-        <v>1</v>
-      </c>
       <c r="AK64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>328441</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8407,24 +8797,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI65">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ65">
         <v>1995</v>
       </c>
-      <c r="AJ65">
-        <v>1</v>
-      </c>
       <c r="AK65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>982580.5</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8523,24 +8919,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI66">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ66">
         <v>1995</v>
       </c>
-      <c r="AJ66">
-        <v>1</v>
-      </c>
       <c r="AK66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>10959</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8639,24 +9041,30 @@
         <v>0.1351294776153783</v>
       </c>
       <c r="AI67">
+        <v>0.03451490388550053</v>
+      </c>
+      <c r="AJ67">
         <v>1995</v>
       </c>
-      <c r="AJ67">
-        <v>1</v>
-      </c>
       <c r="AK67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
         <v>0</v>
       </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8755,11 +9163,11 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI68">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ68">
         <v>1995</v>
       </c>
-      <c r="AJ68">
-        <v>1</v>
-      </c>
       <c r="AK68">
         <v>1</v>
       </c>
@@ -8767,12 +9175,18 @@
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>258857.5</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8871,11 +9285,11 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI69">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ69">
         <v>1995</v>
       </c>
-      <c r="AJ69">
-        <v>1</v>
-      </c>
       <c r="AK69">
         <v>1</v>
       </c>
@@ -8883,12 +9297,18 @@
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>560953</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8987,11 +9407,11 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI70">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ70">
         <v>1995</v>
       </c>
-      <c r="AJ70">
-        <v>1</v>
-      </c>
       <c r="AK70">
         <v>1</v>
       </c>
@@ -8999,12 +9419,18 @@
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>343274.5</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9103,11 +9529,11 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI71">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ71">
         <v>1995</v>
       </c>
-      <c r="AJ71">
-        <v>1</v>
-      </c>
       <c r="AK71">
         <v>1</v>
       </c>
@@ -9115,12 +9541,18 @@
         <v>1</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>358616</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9219,11 +9651,11 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI72">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ72">
         <v>1995</v>
       </c>
-      <c r="AJ72">
-        <v>1</v>
-      </c>
       <c r="AK72">
         <v>1</v>
       </c>
@@ -9231,12 +9663,18 @@
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>60953</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9335,11 +9773,11 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI73">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ73">
         <v>1995</v>
       </c>
-      <c r="AJ73">
-        <v>1</v>
-      </c>
       <c r="AK73">
         <v>1</v>
       </c>
@@ -9347,12 +9785,18 @@
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>467418</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9451,11 +9895,11 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI74">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ74">
         <v>1995</v>
       </c>
-      <c r="AJ74">
-        <v>1</v>
-      </c>
       <c r="AK74">
         <v>1</v>
       </c>
@@ -9463,12 +9907,18 @@
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>4406327.5</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9567,24 +10017,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI75">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ75">
         <v>1995</v>
       </c>
-      <c r="AJ75">
-        <v>1</v>
-      </c>
       <c r="AK75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>379146</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9683,30 +10139,36 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI76">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ76">
         <v>1995</v>
       </c>
-      <c r="AJ76">
-        <v>1</v>
-      </c>
       <c r="AK76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>3484407</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -9799,24 +10261,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI77">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ77">
         <v>1995</v>
       </c>
-      <c r="AJ77">
-        <v>1</v>
-      </c>
       <c r="AK77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>879955</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9915,24 +10383,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI78">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ78">
         <v>1995</v>
       </c>
-      <c r="AJ78">
-        <v>1</v>
-      </c>
       <c r="AK78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>2434546.5</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -10031,24 +10505,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI79">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ79">
         <v>1995</v>
       </c>
-      <c r="AJ79">
-        <v>1</v>
-      </c>
       <c r="AK79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>311629.5</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10147,24 +10627,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI80">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ80">
         <v>1995</v>
       </c>
-      <c r="AJ80">
-        <v>1</v>
-      </c>
       <c r="AK80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>3661659</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10263,24 +10749,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI81">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ81">
         <v>1995</v>
       </c>
-      <c r="AJ81">
-        <v>1</v>
-      </c>
       <c r="AK81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>2041850</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10379,24 +10871,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI82">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ82">
         <v>1995</v>
       </c>
-      <c r="AJ82">
-        <v>1</v>
-      </c>
       <c r="AK82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>328441</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10495,24 +10993,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI83">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ83">
         <v>1995</v>
       </c>
-      <c r="AJ83">
-        <v>1</v>
-      </c>
       <c r="AK83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>982580.5</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10611,24 +11115,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI84">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ84">
         <v>1995</v>
       </c>
-      <c r="AJ84">
-        <v>1</v>
-      </c>
       <c r="AK84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>10959</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10727,24 +11237,30 @@
         <v>0.1301111663059841</v>
       </c>
       <c r="AI85">
+        <v>0.02841042758870715</v>
+      </c>
+      <c r="AJ85">
         <v>1995</v>
       </c>
-      <c r="AJ85">
-        <v>1</v>
-      </c>
       <c r="AK85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
         <v>0</v>
       </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10843,11 +11359,11 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI86">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ86">
         <v>1995</v>
       </c>
-      <c r="AJ86">
-        <v>1</v>
-      </c>
       <c r="AK86">
         <v>1</v>
       </c>
@@ -10855,12 +11371,18 @@
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>600000</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10959,11 +11481,11 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI87">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ87">
         <v>1995</v>
       </c>
-      <c r="AJ87">
-        <v>1</v>
-      </c>
       <c r="AK87">
         <v>1</v>
       </c>
@@ -10971,12 +11493,18 @@
         <v>1</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>107500</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11075,24 +11603,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI88">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ88">
         <v>1995</v>
       </c>
-      <c r="AJ88">
-        <v>1</v>
-      </c>
       <c r="AK88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>5000</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11191,11 +11725,11 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI89">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ89">
         <v>1995</v>
       </c>
-      <c r="AJ89">
-        <v>1</v>
-      </c>
       <c r="AK89">
         <v>1</v>
       </c>
@@ -11203,12 +11737,18 @@
         <v>1</v>
       </c>
       <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>125000</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11307,24 +11847,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI90">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ90">
         <v>1995</v>
       </c>
-      <c r="AJ90">
-        <v>1</v>
-      </c>
       <c r="AK90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>825000</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11423,11 +11969,11 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI91">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ91">
         <v>1995</v>
       </c>
-      <c r="AJ91">
-        <v>1</v>
-      </c>
       <c r="AK91">
         <v>1</v>
       </c>
@@ -11435,12 +11981,18 @@
         <v>1</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>600000</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11539,24 +12091,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI92">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ92">
         <v>1995</v>
       </c>
-      <c r="AJ92">
-        <v>1</v>
-      </c>
       <c r="AK92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>5500</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11655,24 +12213,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI93">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ93">
         <v>1995</v>
       </c>
-      <c r="AJ93">
-        <v>1</v>
-      </c>
       <c r="AK93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>1360500</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11771,24 +12335,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI94">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ94">
         <v>1995</v>
       </c>
-      <c r="AJ94">
-        <v>1</v>
-      </c>
       <c r="AK94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>4000000</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11887,24 +12457,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI95">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ95">
         <v>1995</v>
       </c>
-      <c r="AJ95">
-        <v>1</v>
-      </c>
       <c r="AK95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95">
+        <v>1</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>784000</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12003,24 +12579,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI96">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ96">
         <v>1995</v>
       </c>
-      <c r="AJ96">
-        <v>1</v>
-      </c>
       <c r="AK96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>1</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>4000000</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12119,11 +12701,11 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI97">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ97">
         <v>1995</v>
       </c>
-      <c r="AJ97">
-        <v>1</v>
-      </c>
       <c r="AK97">
         <v>1</v>
       </c>
@@ -12131,12 +12713,18 @@
         <v>1</v>
       </c>
       <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>240000</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -12235,30 +12823,36 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI98">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ98">
         <v>1995</v>
       </c>
-      <c r="AJ98">
-        <v>1</v>
-      </c>
       <c r="AK98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>3500000</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -12351,24 +12945,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI99">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ99">
         <v>1995</v>
       </c>
-      <c r="AJ99">
-        <v>1</v>
-      </c>
       <c r="AK99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
+        <v>1</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>4050000</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12467,24 +13067,30 @@
         <v>0.148651220116927</v>
       </c>
       <c r="AI100">
+        <v>0.08802683501640907</v>
+      </c>
+      <c r="AJ100">
         <v>1995</v>
       </c>
-      <c r="AJ100">
-        <v>1</v>
-      </c>
       <c r="AK100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>250000</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12583,11 +13189,11 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI101">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ101">
         <v>1995</v>
       </c>
-      <c r="AJ101">
-        <v>1</v>
-      </c>
       <c r="AK101">
         <v>1</v>
       </c>
@@ -12595,12 +13201,18 @@
         <v>1</v>
       </c>
       <c r="AM101">
+        <v>1</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>600000</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12699,11 +13311,11 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI102">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ102">
         <v>1995</v>
       </c>
-      <c r="AJ102">
-        <v>1</v>
-      </c>
       <c r="AK102">
         <v>1</v>
       </c>
@@ -12711,12 +13323,18 @@
         <v>1</v>
       </c>
       <c r="AM102">
+        <v>1</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>107500</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12815,24 +13433,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI103">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ103">
         <v>1995</v>
       </c>
-      <c r="AJ103">
-        <v>1</v>
-      </c>
       <c r="AK103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12931,11 +13555,11 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI104">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ104">
         <v>1995</v>
       </c>
-      <c r="AJ104">
-        <v>1</v>
-      </c>
       <c r="AK104">
         <v>1</v>
       </c>
@@ -12943,12 +13567,18 @@
         <v>1</v>
       </c>
       <c r="AM104">
+        <v>1</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>125000</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -13047,24 +13677,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI105">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ105">
         <v>1995</v>
       </c>
-      <c r="AJ105">
-        <v>1</v>
-      </c>
       <c r="AK105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105">
+        <v>1</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>825000</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13163,11 +13799,11 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI106">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ106">
         <v>1995</v>
       </c>
-      <c r="AJ106">
-        <v>1</v>
-      </c>
       <c r="AK106">
         <v>1</v>
       </c>
@@ -13175,12 +13811,18 @@
         <v>1</v>
       </c>
       <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>600000</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13279,24 +13921,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI107">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ107">
         <v>1995</v>
       </c>
-      <c r="AJ107">
-        <v>1</v>
-      </c>
       <c r="AK107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
+        <v>1</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>5500</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13395,24 +14043,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI108">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ108">
         <v>1995</v>
       </c>
-      <c r="AJ108">
-        <v>1</v>
-      </c>
       <c r="AK108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM108">
+        <v>1</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>1360500</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13511,24 +14165,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI109">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ109">
         <v>1995</v>
       </c>
-      <c r="AJ109">
-        <v>1</v>
-      </c>
       <c r="AK109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM109">
+        <v>1</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>4000000</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13627,24 +14287,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI110">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ110">
         <v>1995</v>
       </c>
-      <c r="AJ110">
-        <v>1</v>
-      </c>
       <c r="AK110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM110">
+        <v>1</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>784000</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13743,24 +14409,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI111">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ111">
         <v>1995</v>
       </c>
-      <c r="AJ111">
-        <v>1</v>
-      </c>
       <c r="AK111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>1</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>4000000</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13859,11 +14531,11 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI112">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ112">
         <v>1995</v>
       </c>
-      <c r="AJ112">
-        <v>1</v>
-      </c>
       <c r="AK112">
         <v>1</v>
       </c>
@@ -13871,12 +14543,18 @@
         <v>1</v>
       </c>
       <c r="AM112">
+        <v>1</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>240000</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13975,30 +14653,36 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI113">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ113">
         <v>1995</v>
       </c>
-      <c r="AJ113">
-        <v>1</v>
-      </c>
       <c r="AK113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM113">
+        <v>1</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>3500000</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14091,24 +14775,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI114">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ114">
         <v>1995</v>
       </c>
-      <c r="AJ114">
-        <v>1</v>
-      </c>
       <c r="AK114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM114">
+        <v>1</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>4050000</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14207,24 +14897,30 @@
         <v>0.1473411271682086</v>
       </c>
       <c r="AI115">
+        <v>0.1098329223575895</v>
+      </c>
+      <c r="AJ115">
         <v>1995</v>
       </c>
-      <c r="AJ115">
-        <v>1</v>
-      </c>
       <c r="AK115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>250000</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14323,11 +15019,11 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI116">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ116">
         <v>1995</v>
       </c>
-      <c r="AJ116">
-        <v>1</v>
-      </c>
       <c r="AK116">
         <v>1</v>
       </c>
@@ -14335,12 +15031,18 @@
         <v>1</v>
       </c>
       <c r="AM116">
+        <v>1</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>608389</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -14439,11 +15141,11 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI117">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ117">
         <v>1995</v>
       </c>
-      <c r="AJ117">
-        <v>1</v>
-      </c>
       <c r="AK117">
         <v>1</v>
       </c>
@@ -14451,12 +15153,18 @@
         <v>1</v>
       </c>
       <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>3046033</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -14555,11 +15263,11 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI118">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ118">
         <v>1995</v>
       </c>
-      <c r="AJ118">
-        <v>1</v>
-      </c>
       <c r="AK118">
         <v>1</v>
       </c>
@@ -14567,12 +15275,18 @@
         <v>1</v>
       </c>
       <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>902154</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -14671,24 +15385,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI119">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ119">
         <v>1995</v>
       </c>
-      <c r="AJ119">
-        <v>1</v>
-      </c>
       <c r="AK119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM119">
+        <v>1</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>123000</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -14787,11 +15507,11 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI120">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ120">
         <v>1995</v>
       </c>
-      <c r="AJ120">
-        <v>1</v>
-      </c>
       <c r="AK120">
         <v>1</v>
       </c>
@@ -14799,12 +15519,18 @@
         <v>1</v>
       </c>
       <c r="AM120">
+        <v>1</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>2720206</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14903,24 +15629,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI121">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ121">
         <v>1995</v>
       </c>
-      <c r="AJ121">
-        <v>1</v>
-      </c>
       <c r="AK121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM121">
+        <v>1</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>1833034</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -15019,11 +15751,11 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI122">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ122">
         <v>1995</v>
       </c>
-      <c r="AJ122">
-        <v>1</v>
-      </c>
       <c r="AK122">
         <v>1</v>
       </c>
@@ -15031,12 +15763,18 @@
         <v>1</v>
       </c>
       <c r="AM122">
+        <v>1</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>1061608</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -15135,24 +15873,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI123">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ123">
         <v>1995</v>
       </c>
-      <c r="AJ123">
-        <v>1</v>
-      </c>
       <c r="AK123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM123">
+        <v>1</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>1617149</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -15251,24 +15995,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI124">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ124">
         <v>1995</v>
       </c>
-      <c r="AJ124">
-        <v>1</v>
-      </c>
       <c r="AK124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM124">
+        <v>1</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>7210855</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -15367,24 +16117,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI125">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ125">
         <v>1995</v>
       </c>
-      <c r="AJ125">
-        <v>1</v>
-      </c>
       <c r="AK125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM125">
+        <v>1</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>9334216</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -15483,24 +16239,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI126">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ126">
         <v>1995</v>
       </c>
-      <c r="AJ126">
-        <v>1</v>
-      </c>
       <c r="AK126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126">
+        <v>1</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>7048549</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -15599,11 +16361,11 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI127">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ127">
         <v>1995</v>
       </c>
-      <c r="AJ127">
-        <v>1</v>
-      </c>
       <c r="AK127">
         <v>1</v>
       </c>
@@ -15611,12 +16373,18 @@
         <v>1</v>
       </c>
       <c r="AM127">
+        <v>1</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>207370</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -15715,24 +16483,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI128">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ128">
         <v>1995</v>
       </c>
-      <c r="AJ128">
-        <v>1</v>
-      </c>
       <c r="AK128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM128">
+        <v>1</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>8491201</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15831,11 +16605,11 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI129">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ129">
         <v>1995</v>
       </c>
-      <c r="AJ129">
-        <v>1</v>
-      </c>
       <c r="AK129">
         <v>1</v>
       </c>
@@ -15843,12 +16617,18 @@
         <v>1</v>
       </c>
       <c r="AM129">
+        <v>1</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>112151</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -15947,30 +16727,36 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI130">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ130">
         <v>1995</v>
       </c>
-      <c r="AJ130">
-        <v>1</v>
-      </c>
       <c r="AK130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>1</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>4587268</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16063,24 +16849,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI131">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ131">
         <v>1995</v>
       </c>
-      <c r="AJ131">
-        <v>1</v>
-      </c>
       <c r="AK131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM131">
+        <v>1</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>4403312</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -16179,24 +16971,30 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI132">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ132">
         <v>1995</v>
       </c>
-      <c r="AJ132">
-        <v>1</v>
-      </c>
       <c r="AK132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM132">
+        <v>1</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>5782755</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -16295,18 +17093,24 @@
         <v>0.1920113055578103</v>
       </c>
       <c r="AI133">
+        <v>0.0345738479474392</v>
+      </c>
+      <c r="AJ133">
         <v>1995</v>
       </c>
-      <c r="AJ133">
-        <v>1</v>
-      </c>
       <c r="AK133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>83996</v>
       </c>
     </row>

--- a/output/acción contra el hambre.xlsx
+++ b/output/acción contra el hambre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>2009_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2009_palestina</t>
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1262,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1384,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1506,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1628,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1750,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1872,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6880</v>
+        <v>7397.509860835168</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1993,8 +1990,8 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2110,7 +2107,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2232,13 +2229,13 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2354,13 +2351,13 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3460</v>
+        <v>4168.505177067188</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2476,13 +2473,13 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>650</v>
+        <v>672.4244025624427</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2598,13 +2595,13 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>690</v>
+        <v>710.2742021758368</v>
       </c>
       <c r="D15">
         <v>2000000</v>
@@ -2720,13 +2717,13 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1170</v>
+        <v>1610.923908476106</v>
       </c>
       <c r="D16">
         <v>2000000</v>
@@ -2842,13 +2839,13 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>350</v>
+        <v>473.2998774917226</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2964,13 +2961,13 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3086,13 +3083,13 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3208,13 +3205,13 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3330,13 +3327,13 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3452,13 +3449,13 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3574,13 +3571,13 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3696,13 +3693,13 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D24">
         <v>2500000</v>
@@ -3818,13 +3815,13 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D25">
         <v>2500000</v>
@@ -3940,13 +3937,13 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D26">
         <v>3200000</v>
@@ -4062,13 +4059,13 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>7480</v>
+        <v>7761.646190572197</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4184,13 +4181,13 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>50</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
         <v>2000000</v>
@@ -4306,7 +4303,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4428,13 +4425,13 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4080</v>
+        <v>4233.575210230672</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4550,13 +4547,13 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4690</v>
+        <v>4539.002521388361</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4672,13 +4669,13 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>3990</v>
+        <v>4022.237688257</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4794,13 +4791,13 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>650</v>
+        <v>694.6031345426339</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4916,13 +4913,13 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5038,13 +5035,13 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1240</v>
+        <v>1629.435089125503</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5160,13 +5157,13 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>360</v>
+        <v>466.0709276378625</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5282,13 +5279,13 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5404,13 +5401,13 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5526,13 +5523,13 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5648,13 +5645,13 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5770,13 +5767,13 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5892,13 +5889,13 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6014,13 +6011,13 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6136,13 +6133,13 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6258,13 +6255,13 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3400</v>
+        <v>3500.527492856126</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6380,13 +6377,13 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>11230</v>
+        <v>11678.13078702468</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6502,13 +6499,13 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>7580</v>
+        <v>7453.823475007535</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6624,13 +6621,13 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" t="s">
-        <v>50</v>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6746,7 +6743,7 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6868,13 +6865,13 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6990,13 +6987,13 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7112,13 +7109,13 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D52">
         <v>478380</v>
@@ -7234,13 +7231,13 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7356,13 +7353,13 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7478,13 +7475,13 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7600,13 +7597,13 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7722,13 +7719,13 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>3970</v>
+        <v>3751.003475853037</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7844,13 +7841,13 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>7590</v>
+        <v>7179.116970062444</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7966,13 +7963,13 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" t="s">
-        <v>50</v>
+      <c r="C59">
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8088,7 +8085,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8210,13 +8207,13 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>670</v>
+        <v>719.6981727039259</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8332,13 +8329,13 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>730</v>
+        <v>684.6474015015979</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8454,13 +8451,13 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>1360</v>
+        <v>1652.714170143609</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8576,13 +8573,13 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>380</v>
+        <v>495.763971160512</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8698,13 +8695,13 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8820,13 +8817,13 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>2840</v>
+        <v>2634.85005236495</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8942,13 +8939,13 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>12740</v>
+        <v>12876.88928835506</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9050,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="AL67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67">
         <v>0</v>
@@ -9064,13 +9061,13 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9186,13 +9183,13 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9308,13 +9305,13 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9430,13 +9427,13 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9552,13 +9549,13 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9674,13 +9671,13 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9796,13 +9793,13 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9918,13 +9915,13 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>4300</v>
+        <v>3898.554689331348</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10040,13 +10037,13 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>7610</v>
+        <v>6978.952586250825</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10162,13 +10159,13 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77" t="s">
-        <v>50</v>
+      <c r="C77">
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10284,7 +10281,7 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -10406,13 +10403,13 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>700</v>
+        <v>731.5588677998553</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10528,13 +10525,13 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>780</v>
+        <v>680.3923729568069</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10650,13 +10647,13 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1450</v>
+        <v>1671.292192516047</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10772,13 +10769,13 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>400</v>
+        <v>503.3023574516347</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10894,13 +10891,13 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11016,13 +11013,13 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>3030</v>
+        <v>2632.058233068435</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11138,13 +11135,13 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>12640</v>
+        <v>12644.6890235017</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11246,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="AL85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85">
         <v>0</v>
@@ -11260,13 +11257,13 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11382,13 +11379,13 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11504,13 +11501,13 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>3230</v>
+        <v>2648.294169302945</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11626,13 +11623,13 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11748,13 +11745,13 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>4500</v>
+        <v>4069.424500171965</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11870,13 +11867,13 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11992,13 +11989,13 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>740</v>
+        <v>741.0381351906716</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12114,13 +12111,13 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12236,13 +12233,13 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12358,13 +12355,13 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1390</v>
+        <v>1692.460946584157</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12480,13 +12477,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>410</v>
+        <v>515.8271637832048</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12602,13 +12599,13 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12724,13 +12721,13 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12846,13 +12843,13 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99" t="s">
-        <v>50</v>
+      <c r="C99">
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -12968,13 +12965,13 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>12560</v>
+        <v>13277.7607681612</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13090,13 +13087,13 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13212,13 +13209,13 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D102">
         <v>129199</v>
@@ -13334,13 +13331,13 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>3360</v>
+        <v>2703.742092148914</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13456,13 +13453,13 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13578,13 +13575,13 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>4110</v>
+        <v>4185.813876020487</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13700,13 +13697,13 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13822,13 +13819,13 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>750</v>
+        <v>750.4706590411453</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13944,13 +13941,13 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14066,13 +14063,13 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14188,13 +14185,13 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>1270</v>
+        <v>1732.587316450496</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14310,13 +14307,13 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>390</v>
+        <v>517.8609592583078</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14432,13 +14429,13 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14554,13 +14551,13 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14676,13 +14673,13 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114" t="s">
-        <v>50</v>
+      <c r="C114">
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14798,13 +14795,13 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>11960</v>
+        <v>13853.0971344428</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -14920,13 +14917,13 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15042,13 +15039,13 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D117">
         <v>129199</v>
@@ -15164,13 +15161,13 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15286,13 +15283,13 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>3460</v>
+        <v>2761.386198249428</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15408,13 +15405,13 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>3570</v>
+        <v>2886.897484630703</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15530,13 +15527,13 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>3830</v>
+        <v>4304.896180977176</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15652,13 +15649,13 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15774,13 +15771,13 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>770</v>
+        <v>809.9545825255682</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -15896,13 +15893,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16018,13 +16015,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16140,13 +16137,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126">
-        <v>1160</v>
+        <v>1705.033923663474</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16262,13 +16259,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16384,13 +16381,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>370</v>
+        <v>526.5953412037009</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16506,13 +16503,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16628,13 +16625,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D130">
         <v>398000</v>
@@ -16750,13 +16747,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131" t="s">
-        <v>50</v>
+      <c r="C131">
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16872,7 +16869,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -16994,13 +16991,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>11180</v>
+        <v>14062.73378768283</v>
       </c>
       <c r="D133">
         <v>0</v>

--- a/output/acción contra el hambre.xlsx
+++ b/output/acción contra el hambre.xlsx
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2696.92</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3114.95</v>
       </c>
       <c r="D28">
         <v>2000000</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2354.125986718473</v>
       </c>
       <c r="D29">
         <v>2400000</v>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3373.49</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4125.78</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>258857.5</v>
+        <v>2449670</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>560953</v>
+        <v>1921000</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>343274.5</v>
+        <v>1411135</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>358616</v>
+        <v>759673</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>60953</v>
+        <v>3132811</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>467418</v>
+        <v>1435173</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>4406327.5</v>
+        <v>2324204</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>379146</v>
+        <v>2749733</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>3484407</v>
+        <v>336725</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10165,13 +10165,13 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1526.54</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>879955</v>
+        <v>806846</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10287,13 +10287,13 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>2434546.5</v>
+        <v>5321974</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>311629.5</v>
+        <v>1313774</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>3661659</v>
+        <v>2430532</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2041850</v>
+        <v>2037471</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>328441</v>
+        <v>4032650</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>982580.5</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>10959</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13099,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>600000</v>
+        <v>343274.5</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -13221,7 +13221,7 @@
         <v>129199</v>
       </c>
       <c r="E102">
-        <v>107500</v>
+        <v>60953</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>5000</v>
+        <v>10959</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>125000</v>
+        <v>4406327.5</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -13587,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>825000</v>
+        <v>379146</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>600000</v>
+        <v>258857.5</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>5500</v>
+        <v>311629.5</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1360500</v>
+        <v>3484407</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -14066,7 +14066,7 @@
         <v>148</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>729.7808175407341</v>
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>4000000</v>
+        <v>3661659</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -14188,7 +14188,7 @@
         <v>149</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>1732.587316450496</v>
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>784000</v>
+        <v>2041850</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -14310,7 +14310,7 @@
         <v>150</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>517.8609592583078</v>
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>4000000</v>
+        <v>328441</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -14441,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>240000</v>
+        <v>467418</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -14554,7 +14554,7 @@
         <v>152</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>1384.519227335143</v>
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>3500000</v>
+        <v>982580.5</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -14679,13 +14679,13 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>4050000</v>
+        <v>879955</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -14807,7 +14807,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -15048,7 +15048,7 @@
         <v>7633.969039669125</v>
       </c>
       <c r="D117">
-        <v>129199</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>107500</v>
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16875,10 +16875,10 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D132">
-        <v>330000</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
